--- a/word_frequency.xlsx
+++ b/word_frequency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marissa/Documents/Fall 2018/Data Visualization/FRIENDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3D8FBC-0039-594B-A0E6-47261AF8A37E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD3C5D0-FA17-1747-BFFB-874873F8258B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Characters</t>
   </si>
@@ -137,21 +137,12 @@
     <t>days of our lives</t>
   </si>
   <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>duck</t>
-  </si>
-  <si>
     <t>pivot</t>
   </si>
   <si>
     <t>unagi</t>
   </si>
   <si>
-    <t>joey doesn't share food</t>
-  </si>
-  <si>
     <t>share food</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>god</t>
   </si>
   <si>
-    <t>could i be</t>
-  </si>
-  <si>
     <t>how you doin</t>
   </si>
   <si>
@@ -192,6 +180,12 @@
   </si>
   <si>
     <t>richardBurke</t>
+  </si>
+  <si>
+    <t>Dr. Drake Ramoray</t>
+  </si>
+  <si>
+    <t>Regina Phalange</t>
   </si>
 </sst>
 </file>
@@ -580,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -621,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -755,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <f>C3+C4</f>
@@ -1395,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <f>C18+C19</f>
@@ -1449,15 +1443,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1491,8 +1488,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1529,8 +1529,12 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <f>C2+D2+E2+F2+G2+H2+I2+J2+K2+L2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1567,8 +1571,12 @@
       <c r="L3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <f t="shared" ref="M3:M24" si="0">C3+D3+E3+F3+G3+H3+I3+J3+K3+L3</f>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1605,8 +1613,12 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1643,8 +1655,12 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1681,8 +1697,12 @@
       <c r="L6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1719,8 +1739,12 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1757,8 +1781,12 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1795,651 +1823,674 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
+        <f>A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <f>C9+C8+C7</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:L10" si="1">D9+D8+D7</f>
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" ref="A11:A24" si="2">A10+1</f>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>11</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>17</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <f>C15+C16</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:M17" si="3">D15+D16</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>34</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>55</v>
+      </c>
+      <c r="I20">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <v>63</v>
+      </c>
+      <c r="K20">
+        <v>69</v>
+      </c>
+      <c r="L20">
+        <v>25</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
         <v>7</v>
       </c>
-      <c r="I11">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>24</v>
+      </c>
+      <c r="L23">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>14</v>
+      </c>
+      <c r="J24">
         <v>8</v>
       </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24">
         <v>17</v>
       </c>
-      <c r="F12">
-        <v>27</v>
-      </c>
-      <c r="G12">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>12</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
-      <c r="K19">
-        <v>25</v>
-      </c>
-      <c r="L19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>11</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21">
-        <v>37</v>
-      </c>
-      <c r="D21">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <v>50</v>
-      </c>
-      <c r="F21">
-        <v>34</v>
-      </c>
-      <c r="G21">
-        <v>24</v>
-      </c>
-      <c r="H21">
-        <v>55</v>
-      </c>
-      <c r="I21">
-        <v>37</v>
-      </c>
-      <c r="J21">
-        <v>63</v>
-      </c>
-      <c r="K21">
-        <v>69</v>
-      </c>
-      <c r="L21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25">
-        <v>11</v>
-      </c>
-      <c r="G25">
-        <v>21</v>
-      </c>
-      <c r="H25">
-        <v>17</v>
-      </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
-        <v>16</v>
-      </c>
-      <c r="K25">
-        <v>24</v>
-      </c>
-      <c r="L25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>13</v>
-      </c>
-      <c r="F26">
-        <v>18</v>
-      </c>
-      <c r="G26">
-        <v>13</v>
-      </c>
-      <c r="H26">
-        <v>18</v>
-      </c>
-      <c r="I26">
-        <v>14</v>
-      </c>
-      <c r="J26">
-        <v>8</v>
-      </c>
-      <c r="K26">
-        <v>23</v>
-      </c>
-      <c r="L26">
-        <v>17</v>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
